--- a/products/identity-personalization/product-management/Auth exp documentation audit_Feb 2020.xlsx
+++ b/products/identity-personalization/product-management/Auth exp documentation audit_Feb 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CC7681-663E-934C-903B-44F72551EE8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550DDD47-5568-9841-A163-85AB3F7F7283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14440" xr2:uid="{A5E053F3-4893-5A4E-B4F6-B4513FFACB19}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
   <si>
     <t>Document</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Error handling</t>
   </si>
   <si>
-    <t>Erik/Brad/Lihan (?)</t>
-  </si>
-  <si>
     <t>API Calls and Dependent Systems</t>
   </si>
   <si>
@@ -111,15 +108,6 @@
     <t>https://github.com/department-of-veterans-affairs/va.gov-team/tree/master/products/identity-personalization/direct-deposit</t>
   </si>
   <si>
-    <t>Error handling - review to see if complete</t>
-  </si>
-  <si>
-    <t>API Calls and Dependent Systems - review to see if complete</t>
-  </si>
-  <si>
-    <t>Service Level Objective - review to see if complete</t>
-  </si>
-  <si>
     <t>Profile 2.0</t>
   </si>
   <si>
@@ -127,13 +115,64 @@
   </si>
   <si>
     <t>https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/products/identity-personalization/profile/Combine%20Profile%20and%20Account/README.md</t>
+  </si>
+  <si>
+    <t>Erik/Lihan</t>
+  </si>
+  <si>
+    <t>Brad/Lihan</t>
+  </si>
+  <si>
+    <t>Tickets created?</t>
+  </si>
+  <si>
+    <t>https://github.com/department-of-veterans-affairs/va.gov-team/issues/5251 and https://github.com/department-of-veterans-affairs/va.gov-team/issues/5252</t>
+  </si>
+  <si>
+    <t>https://github.com/department-of-veterans-affairs/va.gov-team/issues/5251 and https://github.com/department-of-veterans-affairs/va.gov-team/issues/5253</t>
+  </si>
+  <si>
+    <t>https://github.com/department-of-veterans-affairs/va.gov-team/issues/5251 and https://github.com/department-of-veterans-affairs/va.gov-team/issues/5254</t>
+  </si>
+  <si>
+    <t>https://github.com/department-of-veterans-affairs/va.gov-team/issues/5254 and https://github.com/department-of-veterans-affairs/va.gov-team/issues/5256</t>
+  </si>
+  <si>
+    <t>https://github.com/department-of-veterans-affairs/va.gov-team/issues/5254 and https://github.com/department-of-veterans-affairs/va.gov-team/issues/5257</t>
+  </si>
+  <si>
+    <t>How to test</t>
+  </si>
+  <si>
+    <t>Service Level Objective</t>
+  </si>
+  <si>
+    <t>https://github.com/department-of-veterans-affairs/va.gov-team/issues/5220</t>
+  </si>
+  <si>
+    <t>https://github.com/department-of-veterans-affairs/va.gov-team/issues/5261</t>
+  </si>
+  <si>
+    <t>https://github.com/department-of-veterans-affairs/va.gov-team/issues/5262</t>
+  </si>
+  <si>
+    <t>https://github.com/department-of-veterans-affairs/va.gov-team/issues/5094</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>https://github.com/department-of-veterans-affairs/va.gov-team/issues/5359</t>
+  </si>
+  <si>
+    <t>https://github.com/department-of-veterans-affairs/va.gov-team/issues/5360</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,8 +196,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,10 +236,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -504,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DB4088-3B1F-AE4A-95AB-C80FFE573CAC}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,9 +569,10 @@
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" customWidth="1"/>
     <col min="5" max="5" width="52.5" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -536,10 +589,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -555,11 +611,14 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -567,19 +626,22 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -587,231 +649,310 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location="error-handling" xr:uid="{CA2D67F6-9B37-244C-93FF-4B1C3CAD3895}"/>
-    <hyperlink ref="E3" r:id="rId2" location="error-handling" xr:uid="{83D5AE73-CB9B-B141-B67E-C912EE2CBE77}"/>
-    <hyperlink ref="E4" r:id="rId3" location="error-handling" xr:uid="{17C27E8E-5EF6-4E4F-BCEA-D45238CA3652}"/>
-    <hyperlink ref="E18" r:id="rId4" xr:uid="{55933D52-147D-1B4C-89D9-C7004EF3E363}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{813BBA04-0817-9E46-9939-71B854434CBB}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{B875C0B6-7E60-874E-9C66-493F0C32C7E4}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{DF4FB636-F509-AC42-A9EC-6933BCA82538}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{5E70D0E6-7A39-6549-89C7-8A6545854747}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{271B9338-D91C-444C-810D-AE1163CE5439}"/>
+    <hyperlink ref="E4" r:id="rId2" location="error-handling" xr:uid="{83D5AE73-CB9B-B141-B67E-C912EE2CBE77}"/>
+    <hyperlink ref="E5" r:id="rId3" location="error-handling" xr:uid="{17C27E8E-5EF6-4E4F-BCEA-D45238CA3652}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{55933D52-147D-1B4C-89D9-C7004EF3E363}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{813BBA04-0817-9E46-9939-71B854434CBB}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{B875C0B6-7E60-874E-9C66-493F0C32C7E4}"/>
+    <hyperlink ref="E12" r:id="rId7" xr:uid="{DF4FB636-F509-AC42-A9EC-6933BCA82538}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{5E70D0E6-7A39-6549-89C7-8A6545854747}"/>
+    <hyperlink ref="E14" r:id="rId9" xr:uid="{271B9338-D91C-444C-810D-AE1163CE5439}"/>
+    <hyperlink ref="E3" r:id="rId10" location="error-handling" xr:uid="{750D4917-30A5-0748-87FB-849DAFEED84C}"/>
+    <hyperlink ref="E6" r:id="rId11" location="error-handling" xr:uid="{05F3596A-3438-D44E-AAA1-002C3BD77245}"/>
+    <hyperlink ref="E10" r:id="rId12" xr:uid="{1B5CCBA3-FF41-0745-ACE0-B53412E3A248}"/>
+    <hyperlink ref="F7" r:id="rId13" xr:uid="{F07DE6B4-4241-A649-ACC0-FF89B009C216}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{1332C9C4-8B46-C348-A764-1329C3038060}"/>
+    <hyperlink ref="F2" r:id="rId15" xr:uid="{4EFE0B82-4E54-0A45-99EE-F0FCB64F907F}"/>
+    <hyperlink ref="F8" r:id="rId16" xr:uid="{C00D4D0F-A748-384D-AA43-F9100A5C7B80}"/>
+    <hyperlink ref="F9" r:id="rId17" xr:uid="{9E548EB8-A790-3244-B43A-D6C2D26BCD43}"/>
+    <hyperlink ref="F14" r:id="rId18" xr:uid="{2144A955-1D66-3C4F-91EF-48E7A74D57FE}"/>
+    <hyperlink ref="F15" r:id="rId19" xr:uid="{037F06E2-1DB4-734B-965E-60305A05E340}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
